--- a/model/app-mall.orm.xlsx
+++ b/model/app-mall.orm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-app-mall\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA5E618-1BE3-4FE8-93CF-AA8F51B261AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AF423E-A745-4460-8A9D-51AFBE7CF005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="28" activeTab="31" xr2:uid="{392982CA-C4D8-434C-9678-96E43A892558}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" firstSheet="33" activeTab="38" xr2:uid="{392982CA-C4D8-434C-9678-96E43A892558}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="1" r:id="rId1"/>
@@ -51,6 +51,7 @@
     <sheet name="litemall_system" sheetId="35" r:id="rId36"/>
     <sheet name="litemall_topic" sheetId="36" r:id="rId37"/>
     <sheet name="litemall_user" sheetId="37" r:id="rId38"/>
+    <sheet name="Sheet1" sheetId="39" r:id="rId39"/>
   </sheets>
   <definedNames>
     <definedName name="aftersale_status">字典定义!$A$1:$G$13</definedName>
@@ -74,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4187" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4315" uniqueCount="850">
   <si>
     <t>序号</t>
   </si>
@@ -2728,13 +2729,273 @@
   <si>
     <t>已下架</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>litemall_user_role</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户角色</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Role</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>no-web,many-to-many</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据域</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>非空</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>小数位数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺省值</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展配置</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>User ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Role ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色ID</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VERSION</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Version</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据版本</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>version</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTEGER</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATED_BY</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Created By</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建人</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>createdBy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_TIME</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create Time</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>createTime</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATED_BY</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Updated By</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改人</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>updatedBy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_TIME</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update Time</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateTime</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>REMARK</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleMappings</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色映射</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleMappings</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>role</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>userMappings</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LitemallRole</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Role</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleId</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pub,ref-pub,ref-cascade-delete,ref-insertable,ref-updatable</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2792,6 +3053,22 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -3170,15 +3447,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3443,9 +3723,175 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="17" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="18" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="16" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="17" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="18" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="17" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="17" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="19" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="18" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="17" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="17" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="18" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="16" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="18" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="16" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="17" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="18" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="17" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="17" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="18" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="2" xr:uid="{2FFC9C97-2774-4E3F-977E-BDAB8BDAF9F7}"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5073,7 +5519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7168810A-7891-4579-AD9D-DB39F1DA1548}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
@@ -6748,7 +7194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{389E91DE-3118-4234-A512-D8B6872223F6}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
@@ -7655,7 +8101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29AEC2F9-F790-4FE3-8169-1600C0AA3F25}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
@@ -9705,7 +10151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED3B15B-EE98-4F85-ABB9-4E662F427F04}">
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K30" sqref="K30:L30"/>
     </sheetView>
   </sheetViews>
@@ -10614,7 +11060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB196FD-A9DD-47E3-88F3-329D619139D9}">
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K31" sqref="K31:L31"/>
     </sheetView>
   </sheetViews>
@@ -11562,7 +12008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC87BAC-BED2-4586-955F-352F96C3CF40}">
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A49" sqref="A49:XFD49"/>
     </sheetView>
   </sheetViews>
@@ -13131,7 +13577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334F3F72-6D45-47CF-B374-CA9782374DA6}">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -14033,7 +14479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35E94C28-E35B-4A01-B03E-847561593C74}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -14860,7 +15306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F30D55-8369-42E0-B9DA-E3B924E71520}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -20227,7 +20673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13FC6E42-73CE-4C90-B7C0-164254266864}">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
@@ -22883,7 +23329,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D3" sqref="D3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -23370,7 +23816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04F88EC-364A-4222-9315-D59E3E7883BD}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -27083,7 +27529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8B3EC1-8868-4FC0-9F1E-28D2FF5BC9EF}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -27919,6 +28365,986 @@
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC4EE63-CF87-4F2F-9FDC-5B68D7282065}">
+  <dimension ref="A1:P32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30:P30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" style="98" customWidth="1"/>
+    <col min="2" max="2" width="4.4140625" style="98" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" style="98" customWidth="1"/>
+    <col min="4" max="4" width="12.9140625" style="98" customWidth="1"/>
+    <col min="5" max="5" width="4" style="98" customWidth="1"/>
+    <col min="6" max="6" width="15.08203125" style="98" customWidth="1"/>
+    <col min="7" max="7" width="13" style="98" customWidth="1"/>
+    <col min="8" max="8" width="8.9140625" style="98"/>
+    <col min="9" max="9" width="4.75" style="98" customWidth="1"/>
+    <col min="10" max="10" width="11" style="98" customWidth="1"/>
+    <col min="11" max="11" width="6.08203125" style="98" customWidth="1"/>
+    <col min="12" max="12" width="8.25" style="98" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" style="98" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="98" customWidth="1"/>
+    <col min="15" max="16384" width="8.9140625" style="98"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="88" t="s">
+        <v>785</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="89" t="s">
+        <v>786</v>
+      </c>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="92" t="s">
+        <v>787</v>
+      </c>
+      <c r="I1" s="93"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="96"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="88" t="s">
+        <v>486</v>
+      </c>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="89" t="s">
+        <v>788</v>
+      </c>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="92" t="s">
+        <v>487</v>
+      </c>
+      <c r="I2" s="99" t="s">
+        <v>789</v>
+      </c>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="88" t="s">
+        <v>493</v>
+      </c>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="89" t="s">
+        <v>790</v>
+      </c>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="101"/>
+      <c r="N3" s="102"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="88" t="s">
+        <v>492</v>
+      </c>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="97"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="93"/>
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="94"/>
+      <c r="K5" s="94"/>
+      <c r="L5" s="94"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="95"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="105" t="s">
+        <v>674</v>
+      </c>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
+      <c r="N6" s="105"/>
+      <c r="O6" s="105"/>
+      <c r="P6" s="105"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="92" t="s">
+        <v>791</v>
+      </c>
+      <c r="B7" s="92" t="s">
+        <v>792</v>
+      </c>
+      <c r="C7" s="92" t="s">
+        <v>493</v>
+      </c>
+      <c r="D7" s="92" t="s">
+        <v>793</v>
+      </c>
+      <c r="E7" s="92" t="s">
+        <v>794</v>
+      </c>
+      <c r="F7" s="92" t="s">
+        <v>487</v>
+      </c>
+      <c r="G7" s="92" t="s">
+        <v>486</v>
+      </c>
+      <c r="H7" s="92" t="s">
+        <v>795</v>
+      </c>
+      <c r="I7" s="92" t="s">
+        <v>796</v>
+      </c>
+      <c r="J7" s="92" t="s">
+        <v>797</v>
+      </c>
+      <c r="K7" s="92" t="s">
+        <v>798</v>
+      </c>
+      <c r="L7" s="92" t="s">
+        <v>799</v>
+      </c>
+      <c r="M7" s="92" t="s">
+        <v>800</v>
+      </c>
+      <c r="N7" s="92" t="s">
+        <v>801</v>
+      </c>
+      <c r="O7" s="92" t="s">
+        <v>492</v>
+      </c>
+      <c r="P7" s="92" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="106">
+        <v>1</v>
+      </c>
+      <c r="B8" s="106" t="s">
+        <v>803</v>
+      </c>
+      <c r="C8" s="106"/>
+      <c r="D8" s="107" t="s">
+        <v>804</v>
+      </c>
+      <c r="E8" s="107"/>
+      <c r="F8" s="107" t="s">
+        <v>805</v>
+      </c>
+      <c r="G8" s="107" t="s">
+        <v>806</v>
+      </c>
+      <c r="H8" s="107" t="s">
+        <v>746</v>
+      </c>
+      <c r="I8" s="106" t="s">
+        <v>807</v>
+      </c>
+      <c r="J8" s="107" t="s">
+        <v>808</v>
+      </c>
+      <c r="K8" s="106">
+        <v>32</v>
+      </c>
+      <c r="L8" s="106"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="106"/>
+      <c r="P8" s="97"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="106">
+        <v>2</v>
+      </c>
+      <c r="B9" s="106" t="s">
+        <v>803</v>
+      </c>
+      <c r="C9" s="106"/>
+      <c r="D9" s="107" t="s">
+        <v>809</v>
+      </c>
+      <c r="E9" s="107"/>
+      <c r="F9" s="107" t="s">
+        <v>810</v>
+      </c>
+      <c r="G9" s="107" t="s">
+        <v>811</v>
+      </c>
+      <c r="H9" s="107"/>
+      <c r="I9" s="106" t="s">
+        <v>807</v>
+      </c>
+      <c r="J9" s="107" t="s">
+        <v>808</v>
+      </c>
+      <c r="K9" s="106">
+        <v>50</v>
+      </c>
+      <c r="L9" s="106"/>
+      <c r="M9" s="107"/>
+      <c r="N9" s="107"/>
+      <c r="O9" s="106"/>
+      <c r="P9" s="97"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="106">
+        <v>3</v>
+      </c>
+      <c r="B10" s="106"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="107" t="s">
+        <v>812</v>
+      </c>
+      <c r="E10" s="106" t="s">
+        <v>813</v>
+      </c>
+      <c r="F10" s="107" t="s">
+        <v>814</v>
+      </c>
+      <c r="G10" s="107" t="s">
+        <v>815</v>
+      </c>
+      <c r="H10" s="107" t="s">
+        <v>816</v>
+      </c>
+      <c r="I10" s="106" t="s">
+        <v>807</v>
+      </c>
+      <c r="J10" s="107" t="s">
+        <v>817</v>
+      </c>
+      <c r="K10" s="106"/>
+      <c r="L10" s="106"/>
+      <c r="M10" s="107"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="106"/>
+      <c r="P10" s="97"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="106">
+        <v>4</v>
+      </c>
+      <c r="B11" s="106"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="107" t="s">
+        <v>818</v>
+      </c>
+      <c r="E11" s="106"/>
+      <c r="F11" s="107" t="s">
+        <v>819</v>
+      </c>
+      <c r="G11" s="107" t="s">
+        <v>820</v>
+      </c>
+      <c r="H11" s="107" t="s">
+        <v>821</v>
+      </c>
+      <c r="I11" s="106" t="s">
+        <v>807</v>
+      </c>
+      <c r="J11" s="107" t="s">
+        <v>808</v>
+      </c>
+      <c r="K11" s="106">
+        <v>50</v>
+      </c>
+      <c r="L11" s="106"/>
+      <c r="M11" s="107"/>
+      <c r="N11" s="107"/>
+      <c r="O11" s="106"/>
+      <c r="P11" s="97"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="106">
+        <v>5</v>
+      </c>
+      <c r="B12" s="106"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="107" t="s">
+        <v>822</v>
+      </c>
+      <c r="E12" s="106"/>
+      <c r="F12" s="107" t="s">
+        <v>823</v>
+      </c>
+      <c r="G12" s="107" t="s">
+        <v>824</v>
+      </c>
+      <c r="H12" s="107" t="s">
+        <v>825</v>
+      </c>
+      <c r="I12" s="106" t="s">
+        <v>807</v>
+      </c>
+      <c r="J12" s="107" t="s">
+        <v>826</v>
+      </c>
+      <c r="K12" s="106"/>
+      <c r="L12" s="106"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="106"/>
+      <c r="P12" s="97"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="106">
+        <v>6</v>
+      </c>
+      <c r="B13" s="106"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="107" t="s">
+        <v>827</v>
+      </c>
+      <c r="E13" s="106"/>
+      <c r="F13" s="107" t="s">
+        <v>828</v>
+      </c>
+      <c r="G13" s="107" t="s">
+        <v>829</v>
+      </c>
+      <c r="H13" s="107" t="s">
+        <v>830</v>
+      </c>
+      <c r="I13" s="106" t="s">
+        <v>807</v>
+      </c>
+      <c r="J13" s="107" t="s">
+        <v>808</v>
+      </c>
+      <c r="K13" s="106">
+        <v>50</v>
+      </c>
+      <c r="L13" s="106"/>
+      <c r="M13" s="107"/>
+      <c r="N13" s="107"/>
+      <c r="O13" s="106"/>
+      <c r="P13" s="97"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="106">
+        <v>7</v>
+      </c>
+      <c r="B14" s="106"/>
+      <c r="C14" s="106"/>
+      <c r="D14" s="107" t="s">
+        <v>831</v>
+      </c>
+      <c r="E14" s="106"/>
+      <c r="F14" s="107" t="s">
+        <v>832</v>
+      </c>
+      <c r="G14" s="107" t="s">
+        <v>833</v>
+      </c>
+      <c r="H14" s="107" t="s">
+        <v>834</v>
+      </c>
+      <c r="I14" s="106" t="s">
+        <v>807</v>
+      </c>
+      <c r="J14" s="107" t="s">
+        <v>826</v>
+      </c>
+      <c r="K14" s="106"/>
+      <c r="L14" s="106"/>
+      <c r="M14" s="107"/>
+      <c r="N14" s="107"/>
+      <c r="O14" s="106"/>
+      <c r="P14" s="97"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="106">
+        <v>8</v>
+      </c>
+      <c r="B15" s="106"/>
+      <c r="C15" s="106"/>
+      <c r="D15" s="107" t="s">
+        <v>835</v>
+      </c>
+      <c r="E15" s="106" t="s">
+        <v>836</v>
+      </c>
+      <c r="F15" s="107" t="s">
+        <v>837</v>
+      </c>
+      <c r="G15" s="107" t="s">
+        <v>492</v>
+      </c>
+      <c r="H15" s="107" t="s">
+        <v>838</v>
+      </c>
+      <c r="I15" s="106"/>
+      <c r="J15" s="107" t="s">
+        <v>808</v>
+      </c>
+      <c r="K15" s="106">
+        <v>200</v>
+      </c>
+      <c r="L15" s="106"/>
+      <c r="M15" s="107"/>
+      <c r="N15" s="107"/>
+      <c r="O15" s="106"/>
+      <c r="P15" s="97"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="106"/>
+      <c r="B16" s="106"/>
+      <c r="C16" s="106"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="106"/>
+      <c r="L16" s="106"/>
+      <c r="M16" s="107"/>
+      <c r="N16" s="107"/>
+      <c r="O16" s="106"/>
+      <c r="P16" s="97"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A17" s="108" t="s">
+        <v>682</v>
+      </c>
+      <c r="B17" s="109"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="109"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="109"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="109"/>
+      <c r="L17" s="109"/>
+      <c r="M17" s="109"/>
+      <c r="N17" s="109"/>
+      <c r="O17" s="109"/>
+      <c r="P17" s="110"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A18" s="111">
+        <v>1</v>
+      </c>
+      <c r="B18" s="112" t="s">
+        <v>483</v>
+      </c>
+      <c r="C18" s="113"/>
+      <c r="D18" s="93" t="s">
+        <v>742</v>
+      </c>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="92" t="s">
+        <v>484</v>
+      </c>
+      <c r="H18" s="93" t="s">
+        <v>839</v>
+      </c>
+      <c r="I18" s="94"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="114" t="s">
+        <v>485</v>
+      </c>
+      <c r="L18" s="115"/>
+      <c r="M18" s="99" t="s">
+        <v>743</v>
+      </c>
+      <c r="N18" s="100"/>
+      <c r="O18" s="100"/>
+      <c r="P18" s="101"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A19" s="116"/>
+      <c r="B19" s="112" t="s">
+        <v>486</v>
+      </c>
+      <c r="C19" s="113"/>
+      <c r="D19" s="93" t="s">
+        <v>840</v>
+      </c>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="92" t="s">
+        <v>487</v>
+      </c>
+      <c r="H19" s="93" t="s">
+        <v>744</v>
+      </c>
+      <c r="I19" s="94"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="114" t="s">
+        <v>488</v>
+      </c>
+      <c r="L19" s="115"/>
+      <c r="M19" s="99" t="s">
+        <v>489</v>
+      </c>
+      <c r="N19" s="100"/>
+      <c r="O19" s="100"/>
+      <c r="P19" s="101"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="116"/>
+      <c r="B20" s="112" t="s">
+        <v>490</v>
+      </c>
+      <c r="C20" s="113"/>
+      <c r="D20" s="93" t="s">
+        <v>841</v>
+      </c>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="117" t="s">
+        <v>491</v>
+      </c>
+      <c r="H20" s="94" t="s">
+        <v>842</v>
+      </c>
+      <c r="I20" s="94"/>
+      <c r="J20" s="95"/>
+      <c r="K20" s="118"/>
+      <c r="L20" s="119"/>
+      <c r="M20" s="99"/>
+      <c r="N20" s="100"/>
+      <c r="O20" s="100"/>
+      <c r="P20" s="101"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="116"/>
+      <c r="B21" s="112" t="s">
+        <v>492</v>
+      </c>
+      <c r="C21" s="113"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="94"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="94"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="94"/>
+      <c r="J21" s="95"/>
+      <c r="K21" s="114" t="s">
+        <v>493</v>
+      </c>
+      <c r="L21" s="115"/>
+      <c r="M21" s="99" t="s">
+        <v>849</v>
+      </c>
+      <c r="N21" s="100"/>
+      <c r="O21" s="100"/>
+      <c r="P21" s="101"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="116"/>
+      <c r="B22" s="120" t="s">
+        <v>495</v>
+      </c>
+      <c r="C22" s="121"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
+      <c r="K22" s="120"/>
+      <c r="L22" s="122"/>
+      <c r="M22" s="120"/>
+      <c r="N22" s="121"/>
+      <c r="O22" s="121"/>
+      <c r="P22" s="122"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" s="116"/>
+      <c r="B23" s="123" t="s">
+        <v>496</v>
+      </c>
+      <c r="C23" s="114" t="s">
+        <v>497</v>
+      </c>
+      <c r="D23" s="124"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="118" t="s">
+        <v>498</v>
+      </c>
+      <c r="G23" s="114" t="s">
+        <v>499</v>
+      </c>
+      <c r="H23" s="115"/>
+      <c r="I23" s="114" t="s">
+        <v>500</v>
+      </c>
+      <c r="J23" s="115"/>
+      <c r="K23" s="125"/>
+      <c r="L23" s="126"/>
+      <c r="M23" s="125"/>
+      <c r="N23" s="127"/>
+      <c r="O23" s="127"/>
+      <c r="P23" s="126"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" s="116"/>
+      <c r="B24" s="128">
+        <v>1</v>
+      </c>
+      <c r="C24" s="129" t="s">
+        <v>746</v>
+      </c>
+      <c r="D24" s="130"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="132"/>
+      <c r="G24" s="129" t="s">
+        <v>506</v>
+      </c>
+      <c r="H24" s="131"/>
+      <c r="I24" s="132"/>
+      <c r="J24" s="133"/>
+      <c r="K24" s="134"/>
+      <c r="L24" s="135"/>
+      <c r="M24" s="134"/>
+      <c r="N24" s="136"/>
+      <c r="O24" s="136"/>
+      <c r="P24" s="135"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A25" s="116"/>
+      <c r="B25" s="129"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="131"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="129"/>
+      <c r="H25" s="131"/>
+      <c r="I25" s="132"/>
+      <c r="J25" s="133"/>
+      <c r="K25" s="134"/>
+      <c r="L25" s="135"/>
+      <c r="M25" s="134"/>
+      <c r="N25" s="136"/>
+      <c r="O25" s="136"/>
+      <c r="P25" s="135"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A26" s="111">
+        <v>2</v>
+      </c>
+      <c r="B26" s="112" t="s">
+        <v>483</v>
+      </c>
+      <c r="C26" s="113"/>
+      <c r="D26" s="137" t="s">
+        <v>843</v>
+      </c>
+      <c r="E26" s="138"/>
+      <c r="F26" s="138"/>
+      <c r="G26" s="92" t="s">
+        <v>484</v>
+      </c>
+      <c r="H26" s="93" t="s">
+        <v>844</v>
+      </c>
+      <c r="I26" s="94"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="114" t="s">
+        <v>485</v>
+      </c>
+      <c r="L26" s="115"/>
+      <c r="M26" s="99" t="s">
+        <v>845</v>
+      </c>
+      <c r="N26" s="100"/>
+      <c r="O26" s="100"/>
+      <c r="P26" s="101"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A27" s="116"/>
+      <c r="B27" s="112" t="s">
+        <v>486</v>
+      </c>
+      <c r="C27" s="113"/>
+      <c r="D27" s="137" t="s">
+        <v>846</v>
+      </c>
+      <c r="E27" s="138"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="92" t="s">
+        <v>487</v>
+      </c>
+      <c r="H27" s="93" t="s">
+        <v>847</v>
+      </c>
+      <c r="I27" s="94"/>
+      <c r="J27" s="95"/>
+      <c r="K27" s="114" t="s">
+        <v>488</v>
+      </c>
+      <c r="L27" s="115"/>
+      <c r="M27" s="99" t="s">
+        <v>489</v>
+      </c>
+      <c r="N27" s="100"/>
+      <c r="O27" s="100"/>
+      <c r="P27" s="101"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A28" s="116"/>
+      <c r="B28" s="112" t="s">
+        <v>492</v>
+      </c>
+      <c r="C28" s="113"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="94"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="114" t="s">
+        <v>493</v>
+      </c>
+      <c r="L28" s="115"/>
+      <c r="M28" s="99" t="s">
+        <v>849</v>
+      </c>
+      <c r="N28" s="100"/>
+      <c r="O28" s="100"/>
+      <c r="P28" s="101"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A29" s="116"/>
+      <c r="B29" s="120" t="s">
+        <v>495</v>
+      </c>
+      <c r="C29" s="121"/>
+      <c r="D29" s="121"/>
+      <c r="E29" s="121"/>
+      <c r="F29" s="121"/>
+      <c r="G29" s="121"/>
+      <c r="H29" s="121"/>
+      <c r="I29" s="121"/>
+      <c r="J29" s="122"/>
+      <c r="K29" s="120"/>
+      <c r="L29" s="122"/>
+      <c r="M29" s="120"/>
+      <c r="N29" s="121"/>
+      <c r="O29" s="121"/>
+      <c r="P29" s="122"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A30" s="116"/>
+      <c r="B30" s="123" t="s">
+        <v>496</v>
+      </c>
+      <c r="C30" s="114" t="s">
+        <v>497</v>
+      </c>
+      <c r="D30" s="124"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="118" t="s">
+        <v>498</v>
+      </c>
+      <c r="G30" s="114" t="s">
+        <v>499</v>
+      </c>
+      <c r="H30" s="115"/>
+      <c r="I30" s="114" t="s">
+        <v>500</v>
+      </c>
+      <c r="J30" s="115"/>
+      <c r="K30" s="125"/>
+      <c r="L30" s="126"/>
+      <c r="M30" s="125"/>
+      <c r="N30" s="127"/>
+      <c r="O30" s="127"/>
+      <c r="P30" s="126"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A31" s="116"/>
+      <c r="B31" s="128">
+        <v>1</v>
+      </c>
+      <c r="C31" s="129" t="s">
+        <v>848</v>
+      </c>
+      <c r="D31" s="130"/>
+      <c r="E31" s="131"/>
+      <c r="F31" s="132"/>
+      <c r="G31" s="129" t="s">
+        <v>506</v>
+      </c>
+      <c r="H31" s="131"/>
+      <c r="I31" s="132"/>
+      <c r="J31" s="133"/>
+      <c r="K31" s="134"/>
+      <c r="L31" s="135"/>
+      <c r="M31" s="134"/>
+      <c r="N31" s="136"/>
+      <c r="O31" s="136"/>
+      <c r="P31" s="135"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A32" s="116"/>
+      <c r="B32" s="139"/>
+      <c r="C32" s="140"/>
+      <c r="D32" s="130"/>
+      <c r="E32" s="131"/>
+      <c r="F32" s="132"/>
+      <c r="G32" s="129"/>
+      <c r="H32" s="131"/>
+      <c r="I32" s="132"/>
+      <c r="J32" s="133"/>
+      <c r="K32" s="134"/>
+      <c r="L32" s="135"/>
+      <c r="M32" s="141"/>
+      <c r="N32" s="141"/>
+      <c r="O32" s="141"/>
+      <c r="P32" s="142"/>
+    </row>
+  </sheetData>
+  <mergeCells count="79">
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:P23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="M21:P21"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="M22:P22"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M19:P19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A17:P17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32336,7 +33762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{618B2067-FD04-4F98-9371-77CECF716C07}">
   <dimension ref="A1:P41"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>

--- a/model/app-mall.orm.xlsx
+++ b/model/app-mall.orm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-app-mall\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625F01A7-BEF3-43FA-8080-FEC296C94351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E7E540-9232-4E01-8803-3D16360FACE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="2" xr2:uid="{392982CA-C4D8-434C-9678-96E43A892558}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4406" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4407" uniqueCount="873">
   <si>
     <t>序号</t>
   </si>
@@ -3074,6 +3074,14 @@
   <si>
     <t>pub,ref-pub,ref-cascade-delete,ref-insertable,ref-updatable,ref-grid</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>file-list</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -22290,7 +22298,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -22594,7 +22602,9 @@
       <c r="B18" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="21" t="s">
+        <v>871</v>
+      </c>
       <c r="D18" s="1" t="s">
         <v>677</v>
       </c>
@@ -22612,7 +22622,7 @@
         <v>708</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>734</v>
+        <v>872</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>677</v>
